--- a/src/SampleData.xlsx
+++ b/src/SampleData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jazgulomurbekova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jazgulomurbekova/Projects/chicago14cucumberjunit2 2/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB111F6-0FFC-B743-B03D-37EA3C1E7744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2BD640-DF6F-9B4F-A4F8-EE4EC72D9F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E72C85CD-4E68-2C4D-9101-5D288C831C74}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{E72C85CD-4E68-2C4D-9101-5D288C831C74}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -42,9 +42,6 @@
     <t>JOB_ID</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>King</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Singer</t>
   </si>
   <si>
-    <t>SDET</t>
-  </si>
-  <si>
     <t>Sandler</t>
   </si>
   <si>
@@ -75,26 +69,19 @@
     <t>Ricky</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Madam</t>
-  </si>
-  <si>
-    <t>Jazgul</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
-    <t>Developer</t>
+    <t>Nurgazy</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -450,7 +437,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,46 +455,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
